--- a/Guiao6/outputAthletes.xlsx
+++ b/Guiao6/outputAthletes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,11 +484,6 @@
           <t>Birth Date</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Place of Birth</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -540,11 +535,6 @@
           <t>2/12/1983</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Chico, California, United States</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -596,11 +586,6 @@
           <t>16/07/1980</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Adelaide, Australia</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -652,11 +637,6 @@
           <t>8/05/1982</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>San Diego, California, United States</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -708,11 +688,6 @@
           <t>27/07/1975</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>New York City</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -764,11 +739,6 @@
           <t>7/01/1976</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>San Pedro de Macorís, Dominican Republic</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -820,11 +790,6 @@
           <t>16/11/1982</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Lake Wales, Florida</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -876,11 +841,6 @@
           <t>13/05/1978</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Las Vegas Valley, Nevada, United States</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -932,11 +892,6 @@
           <t>16/03/1989</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Oklahoma City, Oklahoma, United States</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -988,11 +943,6 @@
           <t>4/11/1984</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Rochester, New York, United States</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1044,11 +994,6 @@
           <t>23/03/1984</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Pittsburgh</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1100,11 +1045,6 @@
           <t>5/08/1981</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Houston, United States</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1156,11 +1096,6 @@
           <t>28/02/1989</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>North Charleston, South Carolina</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1212,11 +1147,6 @@
           <t>29/05/1984</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Brooklyn, New York City, New York, United States</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1268,11 +1198,6 @@
           <t>21/07/1980</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Vallejo, California</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1324,11 +1249,6 @@
           <t>6/05/1985</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Forsyth County, North Carolina, United States</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1380,11 +1300,6 @@
           <t>24/03/1984</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Dallas, Texas, United States</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1436,11 +1351,6 @@
           <t>30/08/1978</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Benton, Arkansas</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1492,11 +1402,6 @@
           <t>27/12/1983</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>San Diego, California, United States</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1548,11 +1453,6 @@
           <t>14/07/1985</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Aliquippa, Pennsylvania, United States</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1604,11 +1504,6 @@
           <t>18/11/1975</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>Santo Domingo, Dominican Republic</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1660,11 +1555,6 @@
           <t>26/06/1974</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>Pequannock Township, New Jersey</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1716,11 +1606,6 @@
           <t>26/06/1984</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>Parkersburg, West Virginia</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1772,11 +1657,6 @@
           <t>4/10/1988</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>Chicago, Illinois, United States</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1828,11 +1708,6 @@
           <t>19/06/1978</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>West Germany, Würzburg</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1884,11 +1759,6 @@
           <t>21/10/1983</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>Orlando, Florida</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1940,11 +1810,6 @@
           <t>15/01/1979</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>Austin, Texas</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1996,11 +1861,6 @@
           <t>8/12/1985</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>Atlanta, Georgia, United States</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -2052,11 +1912,6 @@
           <t>17/01/1982</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>Chicago, Illinois, United States</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2108,11 +1963,6 @@
           <t>30/12/1975</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>Cypress, California</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2164,11 +2014,6 @@
           <t>3/01/1981</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>New Orleans, Louisiana, United States</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2220,11 +2065,6 @@
           <t>17/12/1978</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>Kibawe, Bukidnon, General Santos, Philippines</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2276,11 +2116,6 @@
           <t>08/04/1986</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>Valencia, Venezuela</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2332,11 +2167,6 @@
           <t>29/07/1981</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>Oviedo, Asturias, Spain</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2388,11 +2218,6 @@
           <t>20/03/1984</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>Fuenlabrada, Spain</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2444,11 +2269,6 @@
           <t>24/02/1977</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>Grand Rapids, Michigan, United States</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2500,11 +2320,6 @@
           <t>7/04/1983</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>Boulogne-sur-Mer, France</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2556,11 +2371,6 @@
           <t>16/07/1989</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>Cardiff, Wales</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2612,11 +2422,6 @@
           <t>28/03/1988</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>Pembroke Pines, Florida, United States</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2668,11 +2473,6 @@
           <t>13/05/1983</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>Bouaké, Ivory Coast</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2724,11 +2524,6 @@
           <t>5/04/1976</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>Gothenburg, Sweden</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2780,11 +2575,6 @@
           <t>7/10/1986</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>San Diego, California, United States</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2836,11 +2626,6 @@
           <t>22/01/1982</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>Queen City, Texas, United States</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2892,11 +2677,6 @@
           <t>20/05/1979</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>Springfield, Illinois</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2948,11 +2728,6 @@
           <t>4/08/1971</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>Vallejo, California, United States</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -3004,11 +2779,6 @@
           <t>17/09/1975</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>El Cajon, California, United States</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -3060,11 +2830,6 @@
           <t>29/06/1981</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>Little Rock, Arkansas</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -3116,11 +2881,6 @@
           <t>13/03/1979</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>Mérida, Venezuela</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -3172,11 +2932,6 @@
           <t>7/02/1988</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>Tampa, Florida, United States</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -3228,11 +2983,6 @@
           <t>16/01/1980</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Santo Domingo</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -3284,11 +3034,6 @@
           <t>18/04/1983</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>Venezuela, Maracay</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3340,11 +3085,6 @@
           <t>19/04/1983</t>
         </is>
       </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>Saint Paul, Minnesota</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3396,11 +3136,6 @@
           <t>14/04/1989</t>
         </is>
       </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>Fort Washington, Maryland, United States</t>
-        </is>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3452,11 +3187,6 @@
           <t>18/01/1980</t>
         </is>
       </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>Wilson, North Carolina, United States</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3508,11 +3238,6 @@
           <t>20/02/1983</t>
         </is>
       </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>Manakin-Sabot, Virginia</t>
-        </is>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3564,11 +3289,6 @@
           <t>29/09/1988</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>Washington, D.C.</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3620,11 +3340,6 @@
           <t>23/08/1978</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>Philadelphia</t>
-        </is>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3676,11 +3391,6 @@
           <t>31/08/1983</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>Minneapolis</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3732,11 +3442,6 @@
           <t>30/12/1984</t>
         </is>
       </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>Akron, Ohio</t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3788,11 +3493,6 @@
           <t>7/01/1985</t>
         </is>
       </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>Stevenage, Hertfordshire, England, United Kingdom</t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3844,11 +3544,6 @@
           <t>26/02/1982</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>Wuhan, Hubei, China</t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3900,11 +3595,6 @@
           <t>24/06/1987</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>Rosario, Santa Fe, Argentina</t>
-        </is>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3956,11 +3646,6 @@
           <t>24/01/1987</t>
         </is>
       </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>Salto, Uruguay</t>
-        </is>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -4012,11 +3697,6 @@
           <t>7/07/1981</t>
         </is>
       </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>Ranchi, Bihar, India</t>
-        </is>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -4068,11 +3748,6 @@
           <t>19/04/1987</t>
         </is>
       </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>Nyagan, Russia</t>
-        </is>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -4124,11 +3799,6 @@
           <t>11/04/1980</t>
         </is>
       </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>Annapolis, Maryland</t>
-        </is>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -4180,11 +3850,6 @@
           <t>23/09/1984</t>
         </is>
       </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>Midwest City, Oklahoma</t>
-        </is>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -4236,11 +3901,6 @@
           <t>17/05/1985</t>
         </is>
       </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>Exton, Pennsylvania, United States</t>
-        </is>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -4292,11 +3952,6 @@
           <t>1/10/1984</t>
         </is>
       </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>Dothan, Alabama</t>
-        </is>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -4348,11 +4003,6 @@
           <t>15/01/1980</t>
         </is>
       </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>Stillwater, Oklahoma</t>
-        </is>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -4404,11 +4054,6 @@
           <t>15/10/1988</t>
         </is>
       </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>Gelsenkirchen, Germany</t>
-        </is>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -4460,11 +4105,6 @@
           <t>5/02/1992</t>
         </is>
       </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>Mogi das Cruzes, Brazil</t>
-        </is>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -4516,11 +4156,6 @@
           <t>22/05/1987</t>
         </is>
       </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>Belgrade, Serbia</t>
-        </is>
-      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -4572,11 +4207,6 @@
           <t>6/07/1980</t>
         </is>
       </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>Barcelona, Spain</t>
-        </is>
-      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -4628,11 +4258,6 @@
           <t>24/03/1976</t>
         </is>
       </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>New Orleans</t>
-        </is>
-      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4684,11 +4309,6 @@
           <t>16/06/1970</t>
         </is>
       </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>San Diego, California, United States</t>
-        </is>
-      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -4740,11 +4360,6 @@
           <t>9/05/1984</t>
         </is>
       </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>Ontario, California</t>
-        </is>
-      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4796,11 +4411,6 @@
           <t>10/02/1986</t>
         </is>
       </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>Santa Marta, Colombia</t>
-        </is>
-      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4852,11 +4462,6 @@
           <t>3/06/1986</t>
         </is>
       </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Manacor, Balearic Islands, Spain</t>
-        </is>
-      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -4908,11 +4513,6 @@
           <t>10/10/1974</t>
         </is>
       </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>Kannapolis, North Carolina, United States</t>
-        </is>
-      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -4964,11 +4564,6 @@
           <t>6/08/1983</t>
         </is>
       </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>Rotterdam, Netherlands</t>
-        </is>
-      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -5020,11 +4615,6 @@
           <t>22/11/1982</t>
         </is>
       </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>San Pedro de Macorís, Dominican Republic</t>
-        </is>
-      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -5076,11 +4666,6 @@
           <t>8/08/1981</t>
         </is>
       </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>Basel, Switzerland</t>
-        </is>
-      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -5132,11 +4717,6 @@
           <t>4/05/1989</t>
         </is>
       </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>County Down, Northern Ireland, United Kingdom</t>
-        </is>
-      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -5188,11 +4768,6 @@
           <t>17/08/1986</t>
         </is>
       </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>Baltimore</t>
-        </is>
-      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -5244,11 +4819,6 @@
           <t>12/11/1988</t>
         </is>
       </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>Long Beach, California</t>
-        </is>
-      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -5300,11 +4870,6 @@
           <t>19/11/1979</t>
         </is>
       </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>St. Louis</t>
-        </is>
-      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -5356,11 +4921,6 @@
           <t>18/07/1990</t>
         </is>
       </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>Guadalajara, Jalisco, Mexico</t>
-        </is>
-      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -5412,11 +4972,6 @@
           <t>3/07/1987</t>
         </is>
       </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>Heppenheim, Hesse, Germany</t>
-        </is>
-      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -5468,11 +5023,6 @@
           <t>26/09/1981</t>
         </is>
       </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>Saginaw, Michigan, United States</t>
-        </is>
-      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -5524,11 +5074,6 @@
           <t>2/06/1988</t>
         </is>
       </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>Buenos Aires</t>
-        </is>
-      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -5580,11 +5125,6 @@
           <t>30/05/1980</t>
         </is>
       </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>Whiston, Merseyside, England, United States</t>
-        </is>
-      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -5636,11 +5176,6 @@
           <t>11/10/1982</t>
         </is>
       </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>Minneapolis, Minnesota, United States</t>
-        </is>
-      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -5692,11 +5227,6 @@
           <t>15/06/1984</t>
         </is>
       </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>Bellevue, Washington</t>
-        </is>
-      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -5748,11 +5278,6 @@
           <t>21/08/1986</t>
         </is>
       </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>Trelawny Parish, Jamaica</t>
-        </is>
-      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -5804,11 +5329,6 @@
           <t>8/12/1978</t>
         </is>
       </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>Shreveport, Louisiana</t>
-        </is>
-      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -5860,11 +5380,6 @@
           <t>24/10/1985</t>
         </is>
       </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>Croxteth, Liverpool, England, United Kingdom</t>
-        </is>
-      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -5916,11 +5431,6 @@
           <t>25/03/1976</t>
         </is>
       </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>Kazakhstan</t>
-        </is>
-      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -5972,11 +5482,6 @@
           <t>16/07/1981</t>
         </is>
       </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>Marion, Indiana</t>
-        </is>
-      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -6028,11 +5533,6 @@
           <t>3/10/1981</t>
         </is>
       </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>Malmö, Sweden</t>
-        </is>
-      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -6082,11 +5582,6 @@
       <c r="K101" t="inlineStr">
         <is>
           <t>5/02/1985</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>Funchal, Madeira, Portugal</t>
         </is>
       </c>
     </row>
